--- a/main_data.xlsx
+++ b/main_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weap\Desktop\Programowanie\python\excel_file_merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C697E9-3A8C-4DF9-9E8C-75369138D3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A8CC48-A0BD-4E1A-8DA3-9E88D641E94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20295" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>godz 8-16</t>
   </si>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,25 +409,17 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>123</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
         <v>213</v>
       </c>
     </row>
